--- a/resumen_montaje.xlsx
+++ b/resumen_montaje.xlsx
@@ -476,16 +476,16 @@
         <v>45977</v>
       </c>
       <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
         <v>15</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -535,7 +535,7 @@
         <v>45977</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +637,7 @@
         <v>45977</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +686,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>45977</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>45977</v>
@@ -708,12 +708,23 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>100</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>45977</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B10" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
